--- a/Excel sheets/basic stats across platforms.xlsx
+++ b/Excel sheets/basic stats across platforms.xlsx
@@ -5,16 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish-my.sharepoint.com/personal/brendan_clarke2_nes_scot_nhs_uk/Documents/projects/KIND resources/basic stats across platforms/Excel version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish-my.sharepoint.com/personal/brendan_clarke2_nes_scot_nhs_uk/Documents/projects/KIND resources/basic-stats/Excel sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104821A1587ABC5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A336E7-4936-4C03-B720-4563D87F23DB}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_F25DC773A252ABDACC104821A1587ABC5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C39AF0-0BDE-4DC2-83AA-E33668481535}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Descriptive" sheetId="1" r:id="rId1"/>
+    <sheet name="Data handling" sheetId="2" r:id="rId1"/>
+    <sheet name="Descriptive stats" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Data handling'!$A$2:$A$1001</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Descriptive stats'!$G$23:$G$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Descriptive stats'!$H$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Descriptive stats'!$H$23:$H$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Data handling'!$A$2:$A$1001</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Data handling'!$A$2:$A$1001</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Descriptive stats'!$G$23:$G$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Descriptive stats'!$H$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Descriptive stats'!$H$23:$H$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,16 +45,32 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Make tables and refer to them</t>
   </si>
   <si>
     <t>Range</t>
@@ -69,10 +97,70 @@
     <t>Upper bound of second quartile</t>
   </si>
   <si>
-    <t>Quartile</t>
+    <t>Lower bound of first quartile</t>
   </si>
   <si>
-    <t>Lower bound of first quartile</t>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>Histograms</t>
+  </si>
+  <si>
+    <t>Use tables (CTRL + T)</t>
+  </si>
+  <si>
+    <t>Refer to tables (table design menu)</t>
+  </si>
+  <si>
+    <t>Absolute/relative references</t>
+  </si>
+  <si>
+    <t>Named variables and name manager</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>SD and friends</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>ROUND() with a specified number of decimal places</t>
+  </si>
+  <si>
+    <t>Consider data sheets and calculation sheets</t>
+  </si>
+  <si>
+    <t>Quartiles</t>
+  </si>
+  <si>
+    <t>Upper bound of first centile</t>
+  </si>
+  <si>
+    <t>Upper bound of 90th centile</t>
+  </si>
+  <si>
+    <t>Percentile rank of the value in C16</t>
+  </si>
+  <si>
+    <t>Trimmed mean</t>
+  </si>
+  <si>
+    <t>Rounded mean</t>
   </si>
 </sst>
 </file>
@@ -88,15 +176,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,12 +198,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,11 +237,1425 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v/>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{92599939-80C2-4647-B8CD-D07070BC06B2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>An atrocious histogram</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>An atrocious histogram</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{6C19F5D0-B3E5-4AB8-BD01-7183F4C1B4EA}">
+          <cx:spPr>
+            <a:blipFill>
+              <a:blip r:embed="rId1"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:ln w="47625">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="FF0000"/>
+                  </a:gs>
+                  <a:gs pos="30000">
+                    <a:srgbClr val="002060"/>
+                  </a:gs>
+                  <a:gs pos="70000">
+                    <a:srgbClr val="7030A0"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.17000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:majorGridlines>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BF494C-02B1-4B2E-9B33-4251A708FE15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438401" y="4000500"/>
+              <a:ext cx="4495800" cy="2924175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45C6328-4622-4BA7-9F81-B06AA6752EF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7143750" y="4000500"/>
+              <a:ext cx="4457700" cy="2867025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{312BBD6C-3CFD-4720-87A1-DEED2FF92887}" name="Table1" displayName="Table1" ref="A1:A1002" totalsRowShown="0">
-  <autoFilter ref="A1:A1002" xr:uid="{312BBD6C-3CFD-4720-87A1-DEED2FF92887}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{406260AB-B7A7-46E6-A831-01DE8CCD18D8}" name="Table1" displayName="Table1" ref="A1:A1001" totalsRowShown="0">
+  <autoFilter ref="A1:A1001" xr:uid="{406260AB-B7A7-46E6-A831-01DE8CCD18D8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BBBAD670-ECFE-4A11-A933-D4925E1AA14A}" name="a"/>
+    <tableColumn id="1" xr3:uid="{A2257397-63CD-4A0C-A054-07FDBCD6E108}" name="a"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -399,16 +1923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501EF990-EB5E-447B-AF9E-B5DC938D2819}">
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -417,5079 +1941,5018 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>33.217785143711197</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>COUNT(Table1[])</f>
-        <v>1000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>33.217785143711197</v>
+        <v>24.800010978073001</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <f>MIN(Table1[])</f>
-        <v>-15.4940490681629</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>24.800010978073001</v>
-      </c>
-      <c r="D4">
-        <f>MAX(Table1[])</f>
-        <v>49.507730033101502</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>19.529809378130299</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19.529809378130299</v>
-      </c>
-      <c r="D5">
-        <f>MAX(Table1[]) - MIN(Table1[])</f>
-        <v>65.001779101264404</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+        <v>15.1036651191415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15.1036651191415</v>
+        <v>15.867397719522501</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <f>_xlfn.QUARTILE.INC(Table1[], 0)</f>
-        <v>-15.4940490681629</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15.867397719522501</v>
-      </c>
-      <c r="D7">
-        <f>_xlfn.QUARTILE.INC(Table1[], 1)</f>
-        <v>13.1707681519049</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>21.335362362608102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21.335362362608102</v>
-      </c>
-      <c r="D8">
-        <f>_xlfn.QUARTILE.INC(Table1[], 2)</f>
-        <v>20.189001055959899</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+        <v>11.165958667372999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.165958667372999</v>
-      </c>
-      <c r="D9">
-        <f>_xlfn.QUARTILE.INC(Table1[], 3)</f>
-        <v>26.871891291492197</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>13.5968854178528</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13.5968854178528</v>
-      </c>
-      <c r="D10">
-        <f>_xlfn.QUARTILE.INC(Table1[], 4)</f>
-        <v>49.507730033101502</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>19.184989007010302</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19.184989007010302</v>
+        <v>4.8155750949119902</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.8155750949119902</v>
+        <v>9.4661253533109893</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9.4661253533109893</v>
+        <v>12.2405711290056</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.2405711290056</v>
+        <v>8.8571660775385599</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.8571660775385599</v>
+        <v>17.431397252923201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17.431397252923201</v>
+        <v>25.602479590847</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>25.602479590847</v>
+        <v>13.297224868155901</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13.297224868155901</v>
+        <v>18.135501295053999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18.135501295053999</v>
+        <v>5.3837946737447497</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5.3837946737447497</v>
+        <v>22.746254452196698</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22.746254452196698</v>
+        <v>39.447821390961103</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>39.447821390961103</v>
+        <v>22.743372701189099</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22.743372701189099</v>
+        <v>22.6138497388405</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22.6138497388405</v>
+        <v>2.6932798634360302</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.6932798634360302</v>
+        <v>18.549578509013699</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>18.549578509013699</v>
+        <v>26.684290139488699</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26.684290139488699</v>
+        <v>24.479900092832501</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24.479900092832501</v>
+        <v>30.7600382619936</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30.7600382619936</v>
+        <v>22.584797467241199</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22.584797467241199</v>
+        <v>6.7441619938261903</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6.7441619938261903</v>
+        <v>7.2348200962083498</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7.2348200962083498</v>
+        <v>25.2101055949806</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>25.2101055949806</v>
+        <v>-3.6570854458215498</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-3.6570854458215498</v>
+        <v>23.648421486022698</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>23.648421486022698</v>
+        <v>4.32146716411272</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4.32146716411272</v>
+        <v>15.6932219537702</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>15.6932219537702</v>
+        <v>6.4866240819044299</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6.4866240819044299</v>
+        <v>20.347545141961099</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20.347545141961099</v>
+        <v>27.102645154834999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>27.102645154834999</v>
+        <v>21.276445376689299</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21.276445376689299</v>
+        <v>34.208379638466297</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>34.208379638466297</v>
+        <v>15.5096505754017</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15.5096505754017</v>
+        <v>24.855140675159198</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>24.855140675159198</v>
+        <v>26.194466103602998</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26.194466103602998</v>
+        <v>18.0699814480766</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>18.0699814480766</v>
+        <v>-1.0619318005748299</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-1.0619318005748299</v>
+        <v>14.706495019023199</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>14.706495019023199</v>
+        <v>23.2014887908778</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>23.2014887908778</v>
+        <v>21.859367202806499</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>21.859367202806499</v>
+        <v>16.602798705564599</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>16.602798705564599</v>
+        <v>28.499046963764801</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>28.499046963764801</v>
+        <v>8.2080124493201101</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8.2080124493201101</v>
+        <v>19.7586495312264</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>19.7586495312264</v>
+        <v>33.215427047062498</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>33.215427047062498</v>
+        <v>37.474886743965001</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>37.474886743965001</v>
+        <v>15.1225053733496</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>15.1225053733496</v>
+        <v>8.0213237810615503</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8.0213237810615503</v>
+        <v>10.8510977375827</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10.8510977375827</v>
+        <v>23.071042480507099</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>23.071042480507099</v>
+        <v>17.546458862749901</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>17.546458862749901</v>
+        <v>23.692739826387498</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>23.692739826387498</v>
+        <v>27.174383351739301</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>27.174383351739301</v>
+        <v>16.585879691226399</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>16.585879691226399</v>
+        <v>20.433501283589099</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20.433501283589099</v>
+        <v>21.5551001121867</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>21.5551001121867</v>
+        <v>21.631755229441001</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>21.631755229441001</v>
+        <v>9.0903393501036298</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>9.0903393501036298</v>
+        <v>24.047123404921201</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>24.047123404921201</v>
+        <v>25.309803995206799</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>25.309803995206799</v>
+        <v>19.2519771110805</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>19.2519771110805</v>
+        <v>25.785438572555801</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>25.785438572555801</v>
+        <v>23.727913591012499</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>23.727913591012499</v>
+        <v>12.8705018440956</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12.8705018440956</v>
+        <v>18.4603716577715</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>18.4603716577715</v>
+        <v>4.8290696802816804</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4.8290696802816804</v>
+        <v>9.4626944179274393</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>9.4626944179274393</v>
+        <v>13.168750364048</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13.168750364048</v>
+        <v>23.610254047619598</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>23.610254047619598</v>
+        <v>25.487444522350899</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>25.487444522350899</v>
+        <v>23.078474618069301</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>23.078474618069301</v>
+        <v>13.501467528234301</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13.501467528234301</v>
+        <v>18.195512196274699</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>18.195512196274699</v>
+        <v>9.0927466282549698</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9.0927466282549698</v>
+        <v>30.244273390217401</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>30.244273390217401</v>
+        <v>18.906461098630299</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>18.906461098630299</v>
+        <v>20.843999839579201</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20.843999839579201</v>
+        <v>8.8067956416881792</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8.8067956416881792</v>
+        <v>9.8762894099837908</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9.8762894099837908</v>
+        <v>16.046320764032</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>16.046320764032</v>
+        <v>20.562490130358999</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20.562490130358999</v>
+        <v>10.7630407250461</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10.7630407250461</v>
+        <v>28.811727753930899</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>28.811727753930899</v>
+        <v>22.6572229009432</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>22.6572229009432</v>
+        <v>25.890248383802899</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>25.890248383802899</v>
+        <v>39.411885240249603</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>39.411885240249603</v>
+        <v>32.712132092132997</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>32.712132092132997</v>
+        <v>11.195249559664401</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>11.195249559664401</v>
+        <v>34.228439036340198</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>34.228439036340198</v>
+        <v>16.048452361434698</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>16.048452361434698</v>
+        <v>26.341615846925102</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>26.341615846925102</v>
+        <v>30.182465475462902</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>30.182465475462902</v>
+        <v>26.546422794399</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>26.546422794399</v>
+        <v>16.752162381925</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>16.752162381925</v>
+        <v>12.5377469769975</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>12.5377469769975</v>
+        <v>15.8487402786406</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>15.8487402786406</v>
+        <v>0.93288004153882298</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.93288004153882298</v>
+        <v>9.8168575108302996</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9.8168575108302996</v>
+        <v>30.5129210898594</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>30.5129210898594</v>
+        <v>31.288626171322399</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>31.288626171322399</v>
+        <v>21.3144993566865</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>21.3144993566865</v>
+        <v>4.2791002657791299</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4.2791002657791299</v>
+        <v>20.152785583461899</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>20.152785583461899</v>
+        <v>29.423600684790699</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>29.423600684790699</v>
+        <v>40.8842972989925</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>40.8842972989925</v>
+        <v>30.3227282783464</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>30.3227282783464</v>
+        <v>32.419301156913797</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>32.419301156913797</v>
+        <v>26.953317780011801</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>26.953317780011801</v>
+        <v>4.1059386804830202</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4.1059386804830202</v>
+        <v>22.859034663566799</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>22.859034663566799</v>
+        <v>11.985270588059</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>11.985270588059</v>
+        <v>31.0501665718689</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>31.0501665718689</v>
+        <v>28.693392003951502</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>28.693392003951502</v>
+        <v>13.621329558603801</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>13.621329558603801</v>
+        <v>19.2358786511167</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>19.2358786511167</v>
+        <v>20.039342952632602</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>20.039342952632602</v>
+        <v>20.8745809397501</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>20.8745809397501</v>
+        <v>22.831570569521599</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>22.831570569521599</v>
+        <v>-9.0017279784144204</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-9.0017279784144204</v>
+        <v>29.0641404423239</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>29.0641404423239</v>
+        <v>26.596337805639902</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>26.596337805639902</v>
+        <v>27.151453398794501</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>27.151453398794501</v>
+        <v>30.7017142227002</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>30.7017142227002</v>
+        <v>8.9296760067712206</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>8.9296760067712206</v>
+        <v>19.9289211031166</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>19.9289211031166</v>
+        <v>9.48083352965625</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>9.48083352965625</v>
+        <v>23.114796054725002</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>23.114796054725002</v>
+        <v>16.666311214539899</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>16.666311214539899</v>
+        <v>28.779356940665298</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>28.779356940665298</v>
+        <v>19.123832238201999</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>19.123832238201999</v>
+        <v>25.890873675827098</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>25.890873675827098</v>
+        <v>12.3189649499142</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>12.3189649499142</v>
+        <v>33.070111074950297</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>33.070111074950297</v>
+        <v>28.492853094404602</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>28.492853094404602</v>
+        <v>9.26121590036181</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>9.26121590036181</v>
+        <v>13.8138521881756</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>13.8138521881756</v>
+        <v>14.576606533698</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>14.576606533698</v>
+        <v>5.4926009844464101</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5.4926009844464101</v>
+        <v>29.856722494264599</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>29.856722494264599</v>
+        <v>32.348310134405203</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>32.348310134405203</v>
+        <v>36.463614691559101</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>36.463614691559101</v>
+        <v>25.226915434671199</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>25.226915434671199</v>
+        <v>22.947998193232799</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>22.947998193232799</v>
+        <v>17.778022122674699</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>17.778022122674699</v>
+        <v>21.082104504766001</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>21.082104504766001</v>
+        <v>17.946556594995201</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>17.946556594995201</v>
+        <v>23.7115927195957</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>23.7115927195957</v>
+        <v>23.802929371404201</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>23.802929371404201</v>
+        <v>23.206750807992499</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>23.206750807992499</v>
+        <v>14.989544472862001</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>14.989544472862001</v>
+        <v>18.770161030636999</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>18.770161030636999</v>
+        <v>36.750136465579999</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>36.750136465579999</v>
+        <v>26.8832240559647</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>26.8832240559647</v>
+        <v>28.219847449244401</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>28.219847449244401</v>
+        <v>23.0927032032562</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>23.0927032032562</v>
+        <v>25.070558212680599</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>25.070558212680599</v>
+        <v>14.2255807442115</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>14.2255807442115</v>
+        <v>8.5854363550943695</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>8.5854363550943695</v>
+        <v>10.506768282384201</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>10.506768282384201</v>
+        <v>31.543399170442701</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>31.543399170442701</v>
+        <v>5.6471197148608603</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5.6471197148608603</v>
+        <v>8.9712027148418301</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8.9712027148418301</v>
+        <v>46.094730254409697</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>46.094730254409697</v>
+        <v>23.2610189597935</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>23.2610189597935</v>
+        <v>20.336080247842101</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>20.336080247842101</v>
+        <v>30.8342947589929</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>30.8342947589929</v>
+        <v>33.7070774787407</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>33.7070774787407</v>
+        <v>39.712073722475999</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>39.712073722475999</v>
+        <v>2.7423490177927001</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2.7423490177927001</v>
+        <v>14.5077501600303</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>14.5077501600303</v>
+        <v>34.6124423206412</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>34.6124423206412</v>
+        <v>6.5023129957979897</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>6.5023129957979897</v>
+        <v>18.540036032740598</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>18.540036032740598</v>
+        <v>23.911914889423102</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>23.911914889423102</v>
+        <v>15.4563354265694</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>15.4563354265694</v>
+        <v>17.806346761167301</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>17.806346761167301</v>
+        <v>13.3580425699381</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>13.3580425699381</v>
+        <v>17.1012798754975</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>17.1012798754975</v>
+        <v>14.5717008082432</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>14.5717008082432</v>
+        <v>26.391741093360402</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>26.391741093360402</v>
+        <v>0.88748143388665901</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.88748143388665901</v>
+        <v>1.73419333962333</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1.73419333962333</v>
+        <v>21.1610724634821</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>21.1610724634821</v>
+        <v>5.5468488282443698</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>5.5468488282443698</v>
+        <v>14.152356894657</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>14.152356894657</v>
+        <v>21.938191909542699</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>21.938191909542699</v>
+        <v>38.639190179177</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>38.639190179177</v>
+        <v>19.232995718086499</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>19.232995718086499</v>
+        <v>32.040399284276297</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>32.040399284276297</v>
+        <v>21.884718612321102</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>21.884718612321102</v>
+        <v>23.736340551547499</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>23.736340551547499</v>
+        <v>26.8900191101609</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>26.8900191101609</v>
+        <v>15.6578015059044</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>15.6578015059044</v>
+        <v>29.990059299652799</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>29.990059299652799</v>
+        <v>13.805720309008001</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>13.805720309008001</v>
+        <v>24.9364933124563</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>24.9364933124563</v>
+        <v>11.943309535884699</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11.943309535884699</v>
+        <v>25.124124932615899</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>25.124124932615899</v>
+        <v>20.0978621524856</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>20.0978621524856</v>
+        <v>22.294183611708299</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>22.294183611708299</v>
+        <v>30.157257457886299</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>30.157257457886299</v>
+        <v>12.200594024900701</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>12.200594024900701</v>
+        <v>30.275564109782302</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>30.275564109782302</v>
+        <v>33.562968040819896</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>33.562968040819896</v>
+        <v>15.340778927389801</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>15.340778927389801</v>
+        <v>18.3978352174205</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>18.3978352174205</v>
+        <v>13.179359562457201</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>13.179359562457201</v>
+        <v>14.330254817670101</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>14.330254817670101</v>
+        <v>24.729482657711799</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>24.729482657711799</v>
+        <v>16.347771706542598</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>16.347771706542598</v>
+        <v>29.7335414200721</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>29.7335414200721</v>
+        <v>9.5320515870375395</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>9.5320515870375395</v>
+        <v>16.566702130665298</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>16.566702130665298</v>
+        <v>12.813644892620699</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>12.813644892620699</v>
+        <v>14.2499367897144</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>14.2499367897144</v>
+        <v>6.1631126806116203</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>6.1631126806116203</v>
+        <v>8.6155527632577709</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>8.6155527632577709</v>
+        <v>19.9069946860158</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>19.9069946860158</v>
+        <v>3.7215956497310398</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3.7215956497310398</v>
+        <v>17.792001455752899</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>17.792001455752899</v>
+        <v>19.962503395506499</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>19.962503395506499</v>
+        <v>12.2584411666276</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>12.2584411666276</v>
+        <v>16.581661674302801</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>16.581661674302801</v>
+        <v>8.3257124069670798</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>8.3257124069670798</v>
+        <v>19.580855704019498</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>19.580855704019498</v>
+        <v>21.8416889999597</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>21.8416889999597</v>
+        <v>17.242365252178299</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>17.242365252178299</v>
+        <v>13.3843586297578</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>13.3843586297578</v>
+        <v>9.1981963818155599</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9.1981963818155599</v>
+        <v>13.5514246771322</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>13.5514246771322</v>
+        <v>20.070360787980299</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>20.070360787980299</v>
+        <v>28.277800730562699</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>28.277800730562699</v>
+        <v>23.8754067504874</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>23.8754067504874</v>
+        <v>23.307522284747002</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>23.307522284747002</v>
+        <v>14.3688180366917</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>14.3688180366917</v>
+        <v>10.77061091831</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>10.77061091831</v>
+        <v>22.494808678826899</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>22.494808678826899</v>
+        <v>21.014491794784199</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>21.014491794784199</v>
+        <v>6.4364724723647697</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>6.4364724723647697</v>
+        <v>18.7821847867936</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>18.7821847867936</v>
+        <v>17.839536492658699</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>17.839536492658699</v>
+        <v>17.552950912581998</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>17.552950912581998</v>
+        <v>31.430440306846101</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>31.430440306846101</v>
+        <v>18.9961855640897</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>18.9961855640897</v>
+        <v>19.534892204171801</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>19.534892204171801</v>
+        <v>24.869483882998299</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>24.869483882998299</v>
+        <v>11.8032063359364</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>11.8032063359364</v>
+        <v>21.859726458624699</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>21.859726458624699</v>
+        <v>15.398340120602599</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>15.398340120602599</v>
+        <v>32.319960856152498</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>32.319960856152498</v>
+        <v>17.541351015729099</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>17.541351015729099</v>
+        <v>30.537970360169801</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>30.537970360169801</v>
+        <v>20.358482716858099</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20.358482716858099</v>
+        <v>13.589816288144201</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>13.589816288144201</v>
+        <v>31.8438350941686</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>31.8438350941686</v>
+        <v>23.197667101413501</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>23.197667101413501</v>
+        <v>16.4593299737727</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>16.4593299737727</v>
+        <v>29.189749857879701</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>29.189749857879701</v>
+        <v>25.325093263752301</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>25.325093263752301</v>
+        <v>23.470208026083899</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>23.470208026083899</v>
+        <v>15.656578424597599</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>15.656578424597599</v>
+        <v>33.373784855107502</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>33.373784855107502</v>
+        <v>9.9675616474777993</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>9.9675616474777993</v>
+        <v>21.9307329757041</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>21.9307329757041</v>
+        <v>43.962950026954204</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>43.962950026954204</v>
+        <v>18.355310527985999</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>18.355310527985999</v>
+        <v>9.9371971987957703</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>9.9371971987957703</v>
+        <v>15.673537654014501</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>15.673537654014501</v>
+        <v>26.0343524909281</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>26.0343524909281</v>
+        <v>26.173410145222601</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>26.173410145222601</v>
+        <v>25.128736137660301</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>25.128736137660301</v>
+        <v>17.436370286250199</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>17.436370286250199</v>
+        <v>24.248350501154899</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>24.248350501154899</v>
+        <v>30.3482497930625</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>30.3482497930625</v>
+        <v>19.704382698200899</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>19.704382698200899</v>
+        <v>5.2483842016762496</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>5.2483842016762496</v>
+        <v>17.310806775503199</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>17.310806775503199</v>
+        <v>13.912872826979701</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>13.912872826979701</v>
+        <v>16.600615045352502</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>16.600615045352502</v>
+        <v>29.649057712894699</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>29.649057712894699</v>
+        <v>12.5324234618781</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>12.5324234618781</v>
+        <v>33.200700931819</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>33.200700931819</v>
+        <v>23.876918403344401</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>23.876918403344401</v>
+        <v>14.9574539406374</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>14.9574539406374</v>
+        <v>14.8907332887746</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>14.8907332887746</v>
+        <v>35.822023435617901</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>35.822023435617901</v>
+        <v>31.0194651447196</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>31.0194651447196</v>
+        <v>33.539404785090397</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>33.539404785090397</v>
+        <v>27.3915382223161</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>27.3915382223161</v>
+        <v>11.3672450531839</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>11.3672450531839</v>
+        <v>12.1439164682764</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>12.1439164682764</v>
+        <v>14.0172409636127</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>14.0172409636127</v>
+        <v>19.8172731663368</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>19.8172731663368</v>
+        <v>13.727520452684001</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>13.727520452684001</v>
+        <v>27.596204356350199</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>27.596204356350199</v>
+        <v>19.729212434075102</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>19.729212434075102</v>
+        <v>3.1360966012814302</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>3.1360966012814302</v>
+        <v>33.370323941038698</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>33.370323941038698</v>
+        <v>33.997440510314803</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>33.997440510314803</v>
+        <v>11.749006847624401</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>11.749006847624401</v>
+        <v>38.655008429362297</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>38.655008429362297</v>
+        <v>17.6281449814912</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>17.6281449814912</v>
+        <v>16.700111422398098</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>16.700111422398098</v>
+        <v>3.4577473446854499</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>3.4577473446854499</v>
+        <v>28.002649389155199</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>28.002649389155199</v>
+        <v>11.9132361650462</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>11.9132361650462</v>
+        <v>32.339867738238702</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>32.339867738238702</v>
+        <v>14.6820437106553</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>14.6820437106553</v>
+        <v>9.1404109166797198</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>9.1404109166797198</v>
+        <v>19.900255747704499</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>19.900255747704499</v>
+        <v>24.1266523597799</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>24.1266523597799</v>
+        <v>24.306067902189799</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>24.306067902189799</v>
+        <v>27.3478606539731</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>27.3478606539731</v>
+        <v>6.9427198865485398</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6.9427198865485398</v>
+        <v>28.144322058007699</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>28.144322058007699</v>
+        <v>39.757394570796698</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>39.757394570796698</v>
+        <v>15.804530851228799</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>15.804530851228799</v>
+        <v>42.964105945999499</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>42.964105945999499</v>
+        <v>26.359018816283498</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>26.359018816283498</v>
+        <v>6.8379223157841498</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6.8379223157841498</v>
+        <v>16.438125689958699</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>16.438125689958699</v>
+        <v>5.0197587993265298</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5.0197587993265298</v>
+        <v>21.643693066705801</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>21.643693066705801</v>
+        <v>28.101520743571999</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>28.101520743571999</v>
+        <v>9.9336220857544699</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>9.9336220857544699</v>
+        <v>26.1978511129909</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>26.1978511129909</v>
+        <v>16.663607756752</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>16.663607756752</v>
+        <v>-0.94442271896653196</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>-0.94442271896653196</v>
+        <v>23.0160197071501</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>23.0160197071501</v>
+        <v>30.085738505357401</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>30.085738505357401</v>
+        <v>25.817193367034701</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>25.817193367034701</v>
+        <v>16.255723337304801</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>16.255723337304801</v>
+        <v>4.11509341005062</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>4.11509341005062</v>
+        <v>29.0793440655974</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>29.0793440655974</v>
+        <v>24.0236028175127</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>24.0236028175127</v>
+        <v>0.78647411932975997</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.78647411932975997</v>
+        <v>11.9837789500904</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>11.9837789500904</v>
+        <v>20.637350779864398</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>20.637350779864398</v>
+        <v>25.825149812753299</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>25.825149812753299</v>
+        <v>38.034758146334298</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>38.034758146334298</v>
+        <v>13.614086184088499</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>13.614086184088499</v>
+        <v>18.955295519398099</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>18.955295519398099</v>
+        <v>29.2094750228298</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>29.2094750228298</v>
+        <v>35.8928084484115</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>35.8928084484115</v>
+        <v>16.5347435095603</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>16.5347435095603</v>
+        <v>32.918227454584397</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>32.918227454584397</v>
+        <v>35.827592983202997</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>35.827592983202997</v>
+        <v>2.7691840111465198</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>2.7691840111465198</v>
+        <v>24.613396495376101</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>24.613396495376101</v>
+        <v>20.842506480962999</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>20.842506480962999</v>
+        <v>25.610915995430101</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>25.610915995430101</v>
+        <v>27.5474728033658</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>27.5474728033658</v>
+        <v>20.403896204456998</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>20.403896204456998</v>
+        <v>6.5186321091653703</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6.5186321091653703</v>
+        <v>8.7043371374935194</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>8.7043371374935194</v>
+        <v>22.862916974560498</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>22.862916974560498</v>
+        <v>24.7656861806847</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>24.7656861806847</v>
+        <v>24.572046344154099</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>24.572046344154099</v>
+        <v>34.154721005294597</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>34.154721005294597</v>
+        <v>12.176355045431899</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>12.176355045431899</v>
+        <v>18.1063407312067</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>18.1063407312067</v>
+        <v>13.7241032862678</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>13.7241032862678</v>
+        <v>18.6878026829913</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>18.6878026829913</v>
+        <v>26.050174347421901</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>26.050174347421901</v>
+        <v>18.278137623452999</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>18.278137623452999</v>
+        <v>38.696956485744202</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>38.696956485744202</v>
+        <v>13.5452334285288</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>13.5452334285288</v>
+        <v>12.103636621299099</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>12.103636621299099</v>
+        <v>18.574830896945901</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>18.574830896945901</v>
+        <v>17.7396749500471</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>17.7396749500471</v>
+        <v>25.4467667372272</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>25.4467667372272</v>
+        <v>32.022263318939999</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>32.022263318939999</v>
+        <v>27.575112416943501</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>27.575112416943501</v>
+        <v>31.079392125798801</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>31.079392125798801</v>
+        <v>21.4302995740141</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>21.4302995740141</v>
+        <v>9.6135560236330395</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>9.6135560236330395</v>
+        <v>19.836389447355302</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>19.836389447355302</v>
+        <v>20.8749093276876</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>20.8749093276876</v>
+        <v>35.835531809353697</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>35.835531809353697</v>
+        <v>39.759583647288203</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>39.759583647288203</v>
+        <v>31.191526277177601</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>31.191526277177601</v>
+        <v>30.803902415554401</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>30.803902415554401</v>
+        <v>16.451289098175099</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>16.451289098175099</v>
+        <v>17.379246231202099</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>17.379246231202099</v>
+        <v>13.705709842571199</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>13.705709842571199</v>
+        <v>26.383447896640899</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>26.383447896640899</v>
+        <v>29.092735778528699</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>29.092735778528699</v>
+        <v>16.4513321492527</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>16.4513321492527</v>
+        <v>36.786421475876502</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>36.786421475876502</v>
+        <v>8.1950105737751802</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>8.1950105737751802</v>
+        <v>14.836523424640999</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>14.836523424640999</v>
+        <v>14.669916086539301</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>14.669916086539301</v>
+        <v>2.3926086372115001</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>2.3926086372115001</v>
+        <v>6.1244277014198296</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6.1244277014198296</v>
+        <v>24.1631622351224</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>24.1631622351224</v>
+        <v>13.880129939965199</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>13.880129939965199</v>
+        <v>20.712304989703402</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>20.712304989703402</v>
+        <v>10.630285311039</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>10.630285311039</v>
+        <v>-0.34464829607180197</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>-0.34464829607180197</v>
+        <v>46.267366982373403</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>46.267366982373403</v>
+        <v>27.573603898475699</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>27.573603898475699</v>
+        <v>6.3774482847372598</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6.3774482847372598</v>
+        <v>35.396471250041401</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>35.396471250041401</v>
+        <v>3.71765970623699</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>3.71765970623699</v>
+        <v>24.111208072925798</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>24.111208072925798</v>
+        <v>13.8126637242556</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>13.8126637242556</v>
+        <v>11.7192273588575</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>11.7192273588575</v>
+        <v>5.6809956254739697</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>5.6809956254739697</v>
+        <v>17.091815906627801</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>17.091815906627801</v>
+        <v>33.995781777128101</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>33.995781777128101</v>
+        <v>13.3144391834596</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>13.3144391834596</v>
+        <v>34.436800543653398</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>34.436800543653398</v>
+        <v>25.1863116740941</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>25.1863116740941</v>
+        <v>11.331842728293401</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>11.331842728293401</v>
+        <v>27.143054000051301</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>27.143054000051301</v>
+        <v>32.3208845242942</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>32.3208845242942</v>
+        <v>1.4376284964350201</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1.4376284964350201</v>
+        <v>30.379808996632899</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>30.379808996632899</v>
+        <v>20.113666024373</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>20.113666024373</v>
+        <v>14.4683027735931</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>14.4683027735931</v>
+        <v>35.191044887518999</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>35.191044887518999</v>
+        <v>24.062914132317399</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>24.062914132317399</v>
+        <v>8.2511649259503095</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>8.2511649259503095</v>
+        <v>26.535803198660101</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>26.535803198660101</v>
+        <v>39.664161167868301</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>39.664161167868301</v>
+        <v>26.094909631377799</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>26.094909631377799</v>
+        <v>27.915844003517702</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>27.915844003517702</v>
+        <v>31.912184560361201</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>31.912184560361201</v>
+        <v>27.786947099813698</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>27.786947099813698</v>
+        <v>13.0120251492996</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>13.0120251492996</v>
+        <v>9.6477573668952896</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>9.6477573668952896</v>
+        <v>26.293283068639202</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>26.293283068639202</v>
+        <v>11.8430772359496</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>11.8430772359496</v>
+        <v>14.9988348110031</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>14.9988348110031</v>
+        <v>34.185549254811697</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>34.185549254811697</v>
+        <v>29.6411305959105</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>29.6411305959105</v>
+        <v>21.839820368972699</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>21.839820368972699</v>
+        <v>22.745275641666701</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>22.745275641666701</v>
+        <v>3.3033272789654</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>3.3033272789654</v>
+        <v>16.891218164340099</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>16.891218164340099</v>
+        <v>27.288939124900502</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>27.288939124900502</v>
+        <v>37.311438589535399</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>37.311438589535399</v>
+        <v>17.4264329968852</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>17.4264329968852</v>
+        <v>27.762185573219501</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>27.762185573219501</v>
+        <v>21.9348033245486</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>21.9348033245486</v>
+        <v>15.989870104064201</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>15.989870104064201</v>
+        <v>18.670494076977398</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>18.670494076977398</v>
+        <v>7.2757233536648602</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>7.2757233536648602</v>
+        <v>20.701909184776699</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>20.701909184776699</v>
+        <v>26.881654105822999</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>26.881654105822999</v>
+        <v>32.070511554850903</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>32.070511554850903</v>
+        <v>17.001607064452202</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>17.001607064452202</v>
+        <v>35.1215204425053</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>35.1215204425053</v>
+        <v>27.1512149889619</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>27.1512149889619</v>
+        <v>32.292197771350999</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>32.292197771350999</v>
+        <v>17.380112617088901</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>17.380112617088901</v>
+        <v>-2.3280424396713699</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>-2.3280424396713699</v>
+        <v>29.773303939794101</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>29.773303939794101</v>
+        <v>0.23994907996569001</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0.23994907996569001</v>
+        <v>34.472385293368298</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>34.472385293368298</v>
+        <v>21.917730949376701</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>21.917730949376701</v>
+        <v>13.7937245581294</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>13.7937245581294</v>
+        <v>28.580398337700601</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>28.580398337700601</v>
+        <v>4.5730547168510496</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>4.5730547168510496</v>
+        <v>25.982592119267998</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>25.982592119267998</v>
+        <v>12.702769582025701</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>12.702769582025701</v>
+        <v>14.081939963153699</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>14.081939963153699</v>
+        <v>6.0713451145131803</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>6.0713451145131803</v>
+        <v>38.579761363806398</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>38.579761363806398</v>
+        <v>-3.8303021845610901</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>-3.8303021845610901</v>
+        <v>26.662011368570699</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>26.662011368570699</v>
+        <v>30.120387700480499</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>30.120387700480499</v>
+        <v>22.241915365882001</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>22.241915365882001</v>
+        <v>14.8151239387348</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>14.8151239387348</v>
+        <v>17.3124863502414</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>17.3124863502414</v>
+        <v>5.2493219237254003</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>5.2493219237254003</v>
+        <v>19.6588353675962</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>19.6588353675962</v>
+        <v>21.295558207747298</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>21.295558207747298</v>
+        <v>18.6736816355582</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>18.6736816355582</v>
+        <v>29.6053777534995</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>29.6053777534995</v>
+        <v>32.114270580794702</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>32.114270580794702</v>
+        <v>24.985028362524002</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>24.985028362524002</v>
+        <v>43.135378672264203</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>43.135378672264203</v>
+        <v>34.228765386358504</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>34.228765386358504</v>
+        <v>19.979515331350498</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>19.979515331350498</v>
+        <v>14.6190154086483</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>14.6190154086483</v>
+        <v>-5.1434300530373402</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>-5.1434300530373402</v>
+        <v>15.958451794418201</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>15.958451794418201</v>
+        <v>14.7141621510657</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>14.7141621510657</v>
+        <v>15.728394750675401</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>15.728394750675401</v>
+        <v>19.672966197003799</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>19.672966197003799</v>
+        <v>10.201479560326099</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>10.201479560326099</v>
+        <v>23.303942540857399</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>23.303942540857399</v>
+        <v>28.839079911586001</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>28.839079911586001</v>
+        <v>28.5377335892573</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>28.5377335892573</v>
+        <v>30.756740023274599</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>30.756740023274599</v>
+        <v>27.429858507261802</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>27.429858507261802</v>
+        <v>34.196115817432798</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>34.196115817432798</v>
+        <v>12.9628473358544</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>12.9628473358544</v>
+        <v>23.665701622424599</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>23.665701622424599</v>
+        <v>14.9520285438079</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>14.9520285438079</v>
+        <v>9.7098366424593507</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>9.7098366424593507</v>
+        <v>-3.7257160281815702</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>-3.7257160281815702</v>
+        <v>10.0386624243128</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>10.0386624243128</v>
+        <v>7.7958924862260499</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>7.7958924862260499</v>
+        <v>16.774499129650199</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>16.774499129650199</v>
+        <v>4.7465250809886097</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>4.7465250809886097</v>
+        <v>39.8455003238494</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>39.8455003238494</v>
+        <v>8.0084615297725197</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>8.0084615297725197</v>
+        <v>13.143438666452999</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>13.143438666452999</v>
+        <v>21.054563222406699</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>21.054563222406699</v>
+        <v>23.458010606775701</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>23.458010606775701</v>
+        <v>27.396568826012199</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>27.396568826012199</v>
+        <v>21.592894662716901</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>21.592894662716901</v>
+        <v>25.281620243076699</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>25.281620243076699</v>
+        <v>13.2217790853768</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>13.2217790853768</v>
+        <v>20.736583534102401</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>20.736583534102401</v>
+        <v>25.172188381642599</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>25.172188381642599</v>
+        <v>35.898527949334401</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>35.898527949334401</v>
+        <v>17.894480195889901</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>17.894480195889901</v>
+        <v>33.332000104545401</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>33.332000104545401</v>
+        <v>27.1792463849077</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>27.1792463849077</v>
+        <v>23.204476577437902</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>23.204476577437902</v>
+        <v>15.183355931880699</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>15.183355931880699</v>
+        <v>20.7232040006561</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>20.7232040006561</v>
+        <v>25.455456723683099</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>25.455456723683099</v>
+        <v>17.499655694826899</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>17.499655694826899</v>
+        <v>37.074311543318501</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>37.074311543318501</v>
+        <v>1.61811667713334</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1.61811667713334</v>
+        <v>9.6251254993287993</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>9.6251254993287993</v>
+        <v>20.799413157943</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>20.799413157943</v>
+        <v>20.7302276385746</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>20.7302276385746</v>
+        <v>11.390813730026199</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>11.390813730026199</v>
+        <v>5.5940010007063403</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>5.5940010007063403</v>
+        <v>31.802915362262802</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>31.802915362262802</v>
+        <v>18.929773337417199</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>18.929773337417199</v>
+        <v>8.5333498284549592</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>8.5333498284549592</v>
+        <v>7.1685004541998403</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>7.1685004541998403</v>
+        <v>24.204555068229901</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>24.204555068229901</v>
+        <v>23.1014134895238</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>23.1014134895238</v>
+        <v>26.9707901792247</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>26.9707901792247</v>
+        <v>22.478898936920501</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>22.478898936920501</v>
+        <v>14.180110432774701</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>14.180110432774701</v>
+        <v>14.9059579325895</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>14.9059579325895</v>
+        <v>26.854324397712901</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>26.854324397712901</v>
+        <v>31.802442928395799</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>31.802442928395799</v>
+        <v>11.149313766093799</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>11.149313766093799</v>
+        <v>15.5824776609628</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>15.5824776609628</v>
+        <v>10.3202793689874</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>10.3202793689874</v>
+        <v>21.895698741811501</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>21.895698741811501</v>
+        <v>24.965428180697501</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>24.965428180697501</v>
+        <v>18.631064931307101</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>18.631064931307101</v>
+        <v>7.0149527446240203</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>7.0149527446240203</v>
+        <v>27.081007670067301</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>27.081007670067301</v>
+        <v>21.542097709559801</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>21.542097709559801</v>
+        <v>11.696516637369699</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>11.696516637369699</v>
+        <v>6.3537264635534596</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>6.3537264635534596</v>
+        <v>31.632605914104701</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>31.632605914104701</v>
+        <v>35.224438468901603</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>35.224438468901603</v>
+        <v>33.5291244954009</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>33.5291244954009</v>
+        <v>37.6881183037978</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>37.6881183037978</v>
+        <v>24.881003289471099</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>24.881003289471099</v>
+        <v>25.4118304949357</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>25.4118304949357</v>
+        <v>-12.162264870517999</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>-12.162264870517999</v>
+        <v>13.938124693182299</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>13.938124693182299</v>
+        <v>26.341290980937401</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>26.341290980937401</v>
+        <v>27.539798474056798</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>27.539798474056798</v>
+        <v>23.403235310567599</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>23.403235310567599</v>
+        <v>7.3856531865182902</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>7.3856531865182902</v>
+        <v>26.9897947661728</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>26.9897947661728</v>
+        <v>15.4661687508704</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>15.4661687508704</v>
+        <v>37.962033552757099</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>37.962033552757099</v>
+        <v>15.7291446196626</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>15.7291446196626</v>
+        <v>11.781196498576</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>11.781196498576</v>
+        <v>12.238043688900801</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>12.238043688900801</v>
+        <v>16.994957151607998</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>16.994957151607998</v>
+        <v>26.4374043499678</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>26.4374043499678</v>
+        <v>26.5958622258566</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>26.5958622258566</v>
+        <v>37.057184694470301</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>37.057184694470301</v>
+        <v>27.8481441408147</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>27.8481441408147</v>
+        <v>27.0598308665008</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>27.0598308665008</v>
+        <v>28.3076291800324</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>28.3076291800324</v>
+        <v>18.220366503884598</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>18.220366503884598</v>
+        <v>6.4172468663152404</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>6.4172468663152404</v>
+        <v>12.9759272140018</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>12.9759272140018</v>
+        <v>21.521201420375199</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>21.521201420375199</v>
+        <v>27.451519390655601</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>27.451519390655601</v>
+        <v>37.017132246487897</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>37.017132246487897</v>
+        <v>11.466437754977401</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>11.466437754977401</v>
+        <v>17.912853910102299</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>17.912853910102299</v>
+        <v>11.443305547603799</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>11.443305547603799</v>
+        <v>18.9762298639431</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>18.9762298639431</v>
+        <v>4.66398799479588</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>4.66398799479588</v>
+        <v>15.9916290355466</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>15.9916290355466</v>
+        <v>10.701748167268599</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>10.701748167268599</v>
+        <v>13.171440747857201</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>13.171440747857201</v>
+        <v>6.3291090692770204</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>6.3291090692770204</v>
+        <v>-4.6581498681095201</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>-4.6581498681095201</v>
+        <v>9.78870138565253</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>9.78870138565253</v>
+        <v>24.326056083823801</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>24.326056083823801</v>
+        <v>6.6270711960042901</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>6.6270711960042901</v>
+        <v>19.7329082979237</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>19.7329082979237</v>
+        <v>10.257522082417999</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>10.257522082417999</v>
+        <v>30.033190371091301</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>30.033190371091301</v>
+        <v>32.132008595648003</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>32.132008595648003</v>
+        <v>15.0715103687664</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>15.0715103687664</v>
+        <v>9.9927504659245106</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>9.9927504659245106</v>
+        <v>9.8818182198843605</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>9.8818182198843605</v>
+        <v>17.0664569503856</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>17.0664569503856</v>
+        <v>6.7039966649270104</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>6.7039966649270104</v>
+        <v>27.471378805886001</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>27.471378805886001</v>
+        <v>11.3637047976746</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>11.3637047976746</v>
+        <v>25.816764089482799</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>25.816764089482799</v>
+        <v>37.191792597123801</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>37.191792597123801</v>
+        <v>15.7784738107039</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>15.7784738107039</v>
+        <v>37.879628482511201</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>37.879628482511201</v>
+        <v>15.2492225509958</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>15.2492225509958</v>
+        <v>14.4644921576984</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>14.4644921576984</v>
+        <v>16.3001162451238</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>16.3001162451238</v>
+        <v>16.599488955742</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>16.599488955742</v>
+        <v>9.7227574643068895</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>9.7227574643068895</v>
+        <v>21.129745476044899</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>21.129745476044899</v>
+        <v>20.596785009902</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>20.596785009902</v>
+        <v>14.4732199519011</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>14.4732199519011</v>
+        <v>4.5561474645386104</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>4.5561474645386104</v>
+        <v>34.7209888591725</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>34.7209888591725</v>
+        <v>24.599104403498199</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>24.599104403498199</v>
+        <v>24.4157936276379</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>24.4157936276379</v>
+        <v>27.228793384466801</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>27.228793384466801</v>
+        <v>26.720708633726002</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>26.720708633726002</v>
+        <v>25.250572297005299</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>25.250572297005299</v>
+        <v>22.538998876767401</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>22.538998876767401</v>
+        <v>20.463590945751498</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>20.463590945751498</v>
+        <v>2.2572279376094699</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>2.2572279376094699</v>
+        <v>36.675736525091601</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>36.675736525091601</v>
+        <v>14.527224190337</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>14.527224190337</v>
+        <v>19.462067443665099</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>19.462067443665099</v>
+        <v>2.5012852752681001</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>2.5012852752681001</v>
+        <v>14.5593710904104</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>14.5593710904104</v>
+        <v>27.1434071125359</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>27.1434071125359</v>
+        <v>33.927956415656901</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>33.927956415656901</v>
+        <v>32.421741369324003</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>32.421741369324003</v>
+        <v>20.8742678306659</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>20.8742678306659</v>
+        <v>11.4336222189272</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>11.4336222189272</v>
+        <v>10.396816050199201</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>10.396816050199201</v>
+        <v>26.5203206740075</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>26.5203206740075</v>
+        <v>19.5634493811339</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>19.5634493811339</v>
+        <v>32.200669083584003</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>32.200669083584003</v>
+        <v>19.319315701806399</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>19.319315701806399</v>
+        <v>28.851183511924098</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>28.851183511924098</v>
+        <v>15.839446062604599</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>15.839446062604599</v>
+        <v>9.3654584391548994</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>9.3654584391548994</v>
+        <v>12.447681750655899</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>12.447681750655899</v>
+        <v>1.6678129712661101</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1.6678129712661101</v>
+        <v>49.507730033101502</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>49.507730033101502</v>
+        <v>31.906206310218099</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>31.906206310218099</v>
+        <v>22.929497851718601</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>22.929497851718601</v>
+        <v>21.5233514317474</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>21.5233514317474</v>
+        <v>24.595768673534302</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>24.595768673534302</v>
+        <v>19.633719203289001</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>19.633719203289001</v>
+        <v>27.265843627942399</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>27.265843627942399</v>
+        <v>43.1014072179537</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>43.1014072179537</v>
+        <v>28.4341069430061</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>28.4341069430061</v>
+        <v>15.443511239623</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>15.443511239623</v>
+        <v>28.0809247762318</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>28.0809247762318</v>
+        <v>25.646891505395001</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>25.646891505395001</v>
+        <v>20.068060439826201</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>20.068060439826201</v>
+        <v>26.388765123870101</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>26.388765123870101</v>
+        <v>24.583901929414498</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>24.583901929414498</v>
+        <v>18.5404502386682</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>18.5404502386682</v>
+        <v>28.066535408582599</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>28.066535408582599</v>
+        <v>35.864115441166</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>35.864115441166</v>
+        <v>34.992104797100403</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>34.992104797100403</v>
+        <v>34.2443128072265</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>34.2443128072265</v>
+        <v>20.470141074252101</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>20.470141074252101</v>
+        <v>27.6676220755736</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>27.6676220755736</v>
+        <v>20.895985554388901</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>20.895985554388901</v>
+        <v>8.9381637024042995</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>8.9381637024042995</v>
+        <v>32.401202517780497</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>32.401202517780497</v>
+        <v>12.099141281456401</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>12.099141281456401</v>
+        <v>20.847926804673701</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>20.847926804673701</v>
+        <v>4.0222271261048297</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>4.0222271261048297</v>
+        <v>9.0427618963823608</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>9.0427618963823608</v>
+        <v>19.037763863552399</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>19.037763863552399</v>
+        <v>21.9620974034707</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>21.9620974034707</v>
+        <v>12.903284718095</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>12.903284718095</v>
+        <v>32.725973734060403</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>32.725973734060403</v>
+        <v>32.231497138495598</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>32.231497138495598</v>
+        <v>0.441714590070514</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>0.441714590070514</v>
+        <v>38.9321129118971</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>38.9321129118971</v>
+        <v>18.760655236832001</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>18.760655236832001</v>
+        <v>26.1523314196114</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>26.1523314196114</v>
+        <v>20.549755795610999</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>20.549755795610999</v>
+        <v>25.452598900957799</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>25.452598900957799</v>
+        <v>19.403687645770901</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>19.403687645770901</v>
+        <v>-1.4159206448210999</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>-1.4159206448210999</v>
+        <v>2.5922156364614302</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>2.5922156364614302</v>
+        <v>38.886352983364503</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>38.886352983364503</v>
+        <v>15.079232726867801</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>15.079232726867801</v>
+        <v>33.248447458482403</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>33.248447458482403</v>
+        <v>7.053055392718</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>7.053055392718</v>
+        <v>29.176907965390701</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>29.176907965390701</v>
+        <v>4.3801412286610599</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>4.3801412286610599</v>
+        <v>18.021323562515299</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>18.021323562515299</v>
+        <v>18.9452951675582</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>18.9452951675582</v>
+        <v>7.9606216143633404</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>7.9606216143633404</v>
+        <v>28.530051784225801</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>28.530051784225801</v>
+        <v>19.272560778918901</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>19.272560778918901</v>
+        <v>12.918291280132101</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>12.918291280132101</v>
+        <v>12.2439225350317</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>12.2439225350317</v>
+        <v>20.8210455136206</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>20.8210455136206</v>
+        <v>14.1719692580876</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>14.1719692580876</v>
+        <v>0.72214104295446901</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>0.72214104295446901</v>
+        <v>29.311106861702001</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>29.311106861702001</v>
+        <v>21.155744470154701</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>21.155744470154701</v>
+        <v>20.893631734211599</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>20.893631734211599</v>
+        <v>26.691507996591401</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>26.691507996591401</v>
+        <v>20.544830326380701</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>20.544830326380701</v>
+        <v>3.95585839866833</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>3.95585839866833</v>
+        <v>30.924696795410998</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>30.924696795410998</v>
+        <v>32.153210899699801</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>32.153210899699801</v>
+        <v>14.932471016429</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>14.932471016429</v>
+        <v>18.6246911310275</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>18.6246911310275</v>
+        <v>19.140239864575701</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>19.140239864575701</v>
+        <v>29.155064092407901</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>29.155064092407901</v>
+        <v>21.5830222147539</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>21.5830222147539</v>
+        <v>7.0288168196669298</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>7.0288168196669298</v>
+        <v>24.297198158281098</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>24.297198158281098</v>
+        <v>9.3072301829785609</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>9.3072301829785609</v>
+        <v>20.8498969912247</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>20.8498969912247</v>
+        <v>16.679590913024299</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>16.679590913024299</v>
+        <v>20.445502783041</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>20.445502783041</v>
+        <v>16.474873822391299</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>16.474873822391299</v>
+        <v>5.8448666537211498</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>5.8448666537211498</v>
+        <v>37.189207413666601</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>37.189207413666601</v>
+        <v>25.0025484390972</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>25.0025484390972</v>
+        <v>20.429527735082001</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>20.429527735082001</v>
+        <v>37.986676218397903</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>37.986676218397903</v>
+        <v>24.064341743176499</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>24.064341743176499</v>
+        <v>10.6046914728018</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>10.6046914728018</v>
+        <v>21.9567673536596</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>21.9567673536596</v>
+        <v>7.6662788161899398</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>7.6662788161899398</v>
+        <v>28.265728564252999</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>28.265728564252999</v>
+        <v>18.586294401702101</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>18.586294401702101</v>
+        <v>10.6418749204795</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>10.6418749204795</v>
+        <v>25.654292580823199</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>25.654292580823199</v>
+        <v>-15.4940490681629</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>-15.4940490681629</v>
+        <v>27.705646820173801</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>27.705646820173801</v>
+        <v>25.4770085748683</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>25.4770085748683</v>
+        <v>28.510451434153701</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>28.510451434153701</v>
+        <v>26.496555864656202</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>26.496555864656202</v>
+        <v>24.609504163838899</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>24.609504163838899</v>
+        <v>17.662442226554798</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>17.662442226554798</v>
+        <v>16.000133991845502</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>16.000133991845502</v>
+        <v>34.384821168995302</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>34.384821168995302</v>
+        <v>10.670979811966401</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>10.670979811966401</v>
+        <v>6.6319959115796996</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>6.6319959115796996</v>
+        <v>15.1544155430574</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>15.1544155430574</v>
+        <v>26.4012849540944</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>26.4012849540944</v>
+        <v>16.441376169588899</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>16.441376169588899</v>
+        <v>19.277159397832499</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>19.277159397832499</v>
+        <v>26.712348877455799</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>26.712348877455799</v>
+        <v>28.047170351767601</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>28.047170351767601</v>
+        <v>8.8938546979596698</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>8.8938546979596698</v>
+        <v>30.488777555943098</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>30.488777555943098</v>
+        <v>21.8130135977941</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>21.8130135977941</v>
+        <v>11.888919490877599</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>11.888919490877599</v>
+        <v>10.684375228577199</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>10.684375228577199</v>
+        <v>20.359889211132199</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>20.359889211132199</v>
+        <v>7.5283343667549598</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>7.5283343667549598</v>
+        <v>17.6884252695355</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>17.6884252695355</v>
+        <v>9.9672552368246201</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>9.9672552368246201</v>
+        <v>-6.5547844233195898</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>-6.5547844233195898</v>
+        <v>27.022767150705299</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>27.022767150705299</v>
+        <v>24.875629976534999</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>24.875629976534999</v>
+        <v>28.556075541996599</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>28.556075541996599</v>
+        <v>28.290805862800099</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>28.290805862800099</v>
+        <v>24.062607520842899</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>24.062607520842899</v>
+        <v>27.978736480633099</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>27.978736480633099</v>
+        <v>31.551107097728899</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>31.551107097728899</v>
+        <v>27.622574140078399</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>27.622574140078399</v>
+        <v>10.1589845634526</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>10.1589845634526</v>
+        <v>13.0900251181254</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>13.0900251181254</v>
+        <v>26.473369935636399</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>26.473369935636399</v>
+        <v>17.1552057964333</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>17.1552057964333</v>
+        <v>15.2505899156687</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>15.2505899156687</v>
+        <v>23.796066849236698</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>23.796066849236698</v>
+        <v>24.717439773708598</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>24.717439773708598</v>
+        <v>8.8770706657879206</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>8.8770706657879206</v>
+        <v>29.678882215074999</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>29.678882215074999</v>
+        <v>24.602749795453601</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>24.602749795453601</v>
+        <v>21.627403577109199</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>21.627403577109199</v>
+        <v>28.174875324384399</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>28.174875324384399</v>
+        <v>10.367899531674601</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>10.367899531674601</v>
+        <v>27.4476845897446</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>27.4476845897446</v>
+        <v>30.707228751448199</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>30.707228751448199</v>
+        <v>21.529819476548099</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>21.529819476548099</v>
+        <v>10.1498613367894</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>10.1498613367894</v>
+        <v>35.289685172321697</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>35.289685172321697</v>
+        <v>27.6383062431775</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>27.6383062431775</v>
+        <v>18.744807603000599</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>18.744807603000599</v>
+        <v>1.9833734391231801</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>1.9833734391231801</v>
+        <v>8.0185209394679209</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>8.0185209394679209</v>
+        <v>17.898850543661698</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>17.898850543661698</v>
+        <v>11.7969032196252</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>11.7969032196252</v>
+        <v>25.287437515368602</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>25.287437515368602</v>
+        <v>38.859133638133102</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>38.859133638133102</v>
+        <v>13.7693454047033</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>13.7693454047033</v>
+        <v>14.382052519056399</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>14.382052519056399</v>
+        <v>25.719967922641398</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>25.719967922641398</v>
+        <v>16.025487110520501</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>16.025487110520501</v>
+        <v>2.8194078135076301</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>2.8194078135076301</v>
+        <v>25.679426922339999</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>25.679426922339999</v>
+        <v>14.435538515751499</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>14.435538515751499</v>
+        <v>10.432456480415</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>10.432456480415</v>
+        <v>15.931416112671901</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>15.931416112671901</v>
+        <v>6.4981152595265304</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>6.4981152595265304</v>
+        <v>21.4743888318994</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>21.4743888318994</v>
+        <v>14.1819711594741</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>14.1819711594741</v>
+        <v>-1.0802738033208401</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>-1.0802738033208401</v>
+        <v>11.0312411292975</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>11.0312411292975</v>
+        <v>25.237855583348601</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>25.237855583348601</v>
+        <v>16.290025392046399</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>16.290025392046399</v>
+        <v>11.161532860446499</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>11.161532860446499</v>
+        <v>24.716440350617098</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>24.716440350617098</v>
+        <v>12.760233117620899</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>12.760233117620899</v>
+        <v>31.595515675838399</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>31.595515675838399</v>
+        <v>16.090949432382999</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>16.090949432382999</v>
+        <v>11.2414528808299</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>11.2414528808299</v>
+        <v>9.0438356100592792</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>9.0438356100592792</v>
+        <v>7.9690688801057004</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>7.9690688801057004</v>
+        <v>21.1471427900496</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>21.1471427900496</v>
+        <v>16.910240405896602</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>16.910240405896602</v>
+        <v>-4.8092605821799603</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>-4.8092605821799603</v>
+        <v>17.244032309834001</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>17.244032309834001</v>
+        <v>23.728650753305399</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>23.728650753305399</v>
+        <v>25.588836007814599</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>25.588836007814599</v>
+        <v>19.060210488508599</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>19.060210488508599</v>
+        <v>28.6004802300397</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>28.6004802300397</v>
+        <v>10.3597780667924</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>10.3597780667924</v>
+        <v>18.044972704248501</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>18.044972704248501</v>
+        <v>24.828212573199298</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>24.828212573199298</v>
+        <v>17.817221022008901</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>17.817221022008901</v>
+        <v>26.0473099262469</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>26.0473099262469</v>
+        <v>13.1827970519599</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>13.1827970519599</v>
+        <v>10.0241390578457</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>10.0241390578457</v>
+        <v>21.4773155697916</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>21.4773155697916</v>
+        <v>24.374208370506999</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>24.374208370506999</v>
+        <v>23.792950241133401</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>23.792950241133401</v>
+        <v>13.9167859665917</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>13.9167859665917</v>
+        <v>2.5812026575498099</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>2.5812026575498099</v>
+        <v>23.188112480976798</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>23.188112480976798</v>
+        <v>38.185674090142903</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>38.185674090142903</v>
+        <v>8.3657074785847492</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>8.3657074785847492</v>
+        <v>17.171484426462801</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>17.171484426462801</v>
+        <v>11.3126374111738</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>11.3126374111738</v>
+        <v>29.670849598978698</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>29.670849598978698</v>
+        <v>30.060673532520401</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>30.060673532520401</v>
+        <v>32.761996375196098</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>32.761996375196098</v>
+        <v>12.551571903303801</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>12.551571903303801</v>
+        <v>28.650651016150199</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>28.650651016150199</v>
+        <v>16.996737295503699</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>16.996737295503699</v>
+        <v>6.7712108540229101</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>6.7712108540229101</v>
+        <v>29.116053680210001</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>29.116053680210001</v>
+        <v>26.630285303368598</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>26.630285303368598</v>
+        <v>28.991523849317801</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>28.991523849317801</v>
+        <v>36.099602708423198</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>36.099602708423198</v>
+        <v>8.4672428752773996</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>8.4672428752773996</v>
+        <v>19.860436233088699</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>19.860436233088699</v>
+        <v>26.575208475064102</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>26.575208475064102</v>
+        <v>24.221993738981599</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>24.221993738981599</v>
+        <v>35.709257962788897</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>35.709257962788897</v>
+        <v>24.289190715131699</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>24.289190715131699</v>
+        <v>30.409878857581901</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>30.409878857581901</v>
+        <v>29.986171123478201</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>29.986171123478201</v>
+        <v>17.370630109938201</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>17.370630109938201</v>
+        <v>24.284030308547202</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>24.284030308547202</v>
+        <v>23.724098077240601</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>23.724098077240601</v>
+        <v>42.4191412339121</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>42.4191412339121</v>
+        <v>10.678240288335701</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>10.678240288335701</v>
+        <v>12.471181467712199</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>12.471181467712199</v>
+        <v>17.8468084497501</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>17.8468084497501</v>
+        <v>34.138145700129002</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>34.138145700129002</v>
+        <v>17.688196289628699</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>17.688196289628699</v>
+        <v>23.0246648343707</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>23.0246648343707</v>
+        <v>29.497066207387899</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>29.497066207387899</v>
+        <v>13.027132053974899</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>13.027132053974899</v>
+        <v>10.5194466153176</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>10.5194466153176</v>
+        <v>26.716741522895401</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>26.716741522895401</v>
+        <v>20.3926302045396</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>20.3926302045396</v>
+        <v>23.411453487981401</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>23.411453487981401</v>
+        <v>16.805383787808299</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>16.805383787808299</v>
+        <v>9.9310407769442595</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>9.9310407769442595</v>
+        <v>32.4064876347705</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>32.4064876347705</v>
+        <v>7.1409281083850704</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>7.1409281083850704</v>
+        <v>9.8770659190396106</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>9.8770659190396106</v>
+        <v>8.8056882219975794</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>8.8056882219975794</v>
+        <v>7.9068990007139801</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>7.9068990007139801</v>
+        <v>12.0010397763269</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>12.0010397763269</v>
+        <v>27.8053604430573</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>27.8053604430573</v>
+        <v>14.2493270082312</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>14.2493270082312</v>
+        <v>13.593589848640899</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>13.593589848640899</v>
+        <v>24.4189589142964</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>24.4189589142964</v>
+        <v>2.1215886197632701</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>2.1215886197632701</v>
+        <v>7.7654595115400404</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>7.7654595115400404</v>
+        <v>28.636389566278801</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>28.636389566278801</v>
+        <v>44.498035041369</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>44.498035041369</v>
+        <v>4.7650450355119096</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>4.7650450355119096</v>
+        <v>-8.9173703387365109</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>-8.9173703387365109</v>
+        <v>13.215566398836</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>13.215566398836</v>
+        <v>17.477098359474301</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>17.477098359474301</v>
+        <v>23.318277239043201</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>23.318277239043201</v>
+        <v>20.748084691062601</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>20.748084691062601</v>
+        <v>36.156317511594999</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>36.156317511594999</v>
+        <v>28.851672060337702</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>28.851672060337702</v>
+        <v>28.111266114007002</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>28.111266114007002</v>
+        <v>21.642929165439099</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>21.642929165439099</v>
+        <v>5.47802801478384</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>5.47802801478384</v>
+        <v>34.214568417492799</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>34.214568417492799</v>
+        <v>22.624844216779699</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>22.624844216779699</v>
+        <v>38.841739457233103</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>38.841739457233103</v>
+        <v>33.7825363143942</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>33.7825363143942</v>
+        <v>16.041566575708998</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>16.041566575708998</v>
+        <v>4.5956379438232098</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>4.5956379438232098</v>
+        <v>12.2689615305733</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>12.2689615305733</v>
+        <v>26.423633414530201</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>26.423633414530201</v>
+        <v>28.1197979629621</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>28.1197979629621</v>
+        <v>9.3935384488722704</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>9.3935384488722704</v>
+        <v>21.9097024739315</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>21.9097024739315</v>
+        <v>19.313196726167899</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>19.313196726167899</v>
+        <v>18.832962378179499</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>18.832962378179499</v>
+        <v>18.3111001689911</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>18.3111001689911</v>
+        <v>17.761616758777201</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>17.761616758777201</v>
+        <v>7.58293718559512</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>7.58293718559512</v>
+        <v>17.166696224756102</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>17.166696224756102</v>
+        <v>10.858110991123199</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>10.858110991123199</v>
+        <v>11.0816949228187</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>11.0816949228187</v>
+        <v>10.1515694235715</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>10.1515694235715</v>
+        <v>21.4772606232318</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>21.4772606232318</v>
+        <v>34.030765171947799</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>34.030765171947799</v>
+        <v>23.343246740362101</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>23.343246740362101</v>
+        <v>12.1269304988905</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>12.1269304988905</v>
+        <v>21.850696659457601</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>21.850696659457601</v>
+        <v>41.293259752299903</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>41.293259752299903</v>
+        <v>21.912659423845</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>21.912659423845</v>
+        <v>22.082826358719601</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>22.082826358719601</v>
+        <v>18.889700594750401</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>18.889700594750401</v>
+        <v>20.177998419801501</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>20.177998419801501</v>
+        <v>24.4863110332875</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>24.4863110332875</v>
+        <v>16.468754410128</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>16.468754410128</v>
+        <v>9.6912185073623203</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>9.6912185073623203</v>
+        <v>33.816100460787403</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>33.816100460787403</v>
+        <v>20.848651214571198</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>20.848651214571198</v>
+        <v>25.1817759491896</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>25.1817759491896</v>
+        <v>26.868637020048599</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>26.868637020048599</v>
+        <v>8.8880798115278203</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>8.8880798115278203</v>
+        <v>6.3545624109482297</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>6.3545624109482297</v>
+        <v>26.675260184498999</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>26.675260184498999</v>
+        <v>25.293163330610898</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>25.293163330610898</v>
+        <v>16.386106437917</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>16.386106437917</v>
+        <v>6.7246608566940402</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>6.7246608566940402</v>
+        <v>17.679411988584199</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>17.679411988584199</v>
+        <v>20.289625731329199</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>20.289625731329199</v>
+        <v>32.649673038294502</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>32.649673038294502</v>
+        <v>-7.2063080089239602</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>-7.2063080089239602</v>
+        <v>-2.21916565612494</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>-2.21916565612494</v>
+        <v>10.264441660750199</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>10.264441660750199</v>
+        <v>11.304397212172599</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>11.304397212172599</v>
+        <v>24.492262985267999</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>24.492262985267999</v>
+        <v>22.956469389553401</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>22.956469389553401</v>
+        <v>34.189531179747398</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>34.189531179747398</v>
+        <v>21.314951431714402</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>21.314951431714402</v>
+        <v>27.895845152678199</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>27.895845152678199</v>
+        <v>35.490624831724503</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>35.490624831724503</v>
+        <v>16.590502814088399</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>16.590502814088399</v>
+        <v>15.265673614223701</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>15.265673614223701</v>
+        <v>21.936118302991702</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>21.936118302991702</v>
+        <v>15.4228514062274</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>15.4228514062274</v>
+        <v>11.7483074545008</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>11.7483074545008</v>
+        <v>25.726710347715201</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>25.726710347715201</v>
+        <v>13.3711952485819</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>13.3711952485819</v>
+        <v>30.595078462809401</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>30.595078462809401</v>
+        <v>17.431539313698899</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>17.431539313698899</v>
+        <v>7.7765621985610096</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>7.7765621985610096</v>
+        <v>20.200003692118301</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>20.200003692118301</v>
+        <v>30.4911695077225</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>30.4911695077225</v>
+        <v>10.8301188646199</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>10.8301188646199</v>
+        <v>30.205850547087699</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>30.205850547087699</v>
+        <v>34.887124942912699</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>34.887124942912699</v>
+        <v>19.274890475115502</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>19.274890475115502</v>
+        <v>16.8237453037314</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>16.8237453037314</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002">
         <v>11.251168179812501</v>
       </c>
     </row>
@@ -5499,4 +6962,305 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>COUNT(Table1[])</f>
+        <v>1000</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D2)</f>
+        <v>=COUNT(Table1)</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>SUM(Table1[])</f>
+        <v>19975.274651843054</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D3)</f>
+        <v>=SUM(Table1)</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>MIN(Table1[])</f>
+        <v>-15.4940490681629</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F14" ca="1" si="0">_xlfn.FORMULATEXT(D5)</f>
+        <v>=MIN(Table1)</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>MAX(Table1[])</f>
+        <v>49.507730033101502</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MAX(Table1)</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>MAX(Table1[]) - MIN(Table1[])</f>
+        <v>65.001779101264404</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MAX(Table1) - MIN(Table1)</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.QUARTILE.INC(Table1[], 0)</f>
+        <v>-15.4940490681629</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUARTILE.INC(Table1, 0)</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>_xlfn.QUARTILE.INC(Table1[], 1)</f>
+        <v>13.1707681519049</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUARTILE.INC(Table1, 1)</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>_xlfn.QUARTILE.INC(Table1[], 2)</f>
+        <v>20.189001055959899</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUARTILE.INC(Table1, 2)</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>_xlfn.QUARTILE.INC(Table1[], 3)</f>
+        <v>26.871891291492197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUARTILE.INC(Table1, 3)</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>_xlfn.QUARTILE.INC(Table1[], 4)</f>
+        <v>49.507730033101502</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUARTILE.INC(Table1, 4)</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>_xlfn.PERCENTILE.EXC(Table1[], 0.01)</f>
+        <v>-3.8292563229972947</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=PERCENTILE.EXC(Table1, 0.01)</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>_xlfn.PERCENTILE.EXC(Table1[], 0.9)</f>
+        <v>32.418019804699469</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F16" ca="1" si="1">_xlfn.FORMULATEXT(D15)</f>
+        <v>=PERCENTILE.EXC(Table1, 0.9)</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.PERCENTRANK.EXC(Table1[], C16)</f>
+        <v>0.998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=PERCENTRANK.EXC(Table1, C16)</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGE(Table1[])</f>
+        <v>19.975274651843055</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F46" ca="1" si="2">_xlfn.FORMULATEXT(D39)</f>
+        <v>=AVERAGE(Table1)</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>TRIMMEAN(Table1[], 0.05)</f>
+        <v>20.034296367512432</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=TRIMMEAN(Table1, 0.05)</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>ROUND(AVERAGE(Table1[]), 2)</f>
+        <v>19.98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=ROUND(AVERAGE(Table1), 2)</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>MEDIAN(Table1[])</f>
+        <v>20.189001055959899</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=MEDIAN(Table1)</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">MODE(ROUND(Table1[], 2))</f>
+        <v>12.24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=MODE(ROUND(Table1, 2))</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <f>_xlfn.VAR.P(Table1[])</f>
+        <v>95.474778810232522</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=VAR.P(Table1)</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>_xlfn.STDEV.P(Table1[])</f>
+        <v>9.7711196293072025</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=STDEV.P(Table1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>